--- a/EXCEL/PROJECT/proab.xlsx
+++ b/EXCEL/PROJECT/proab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\DA GITHUB\meethirpara9836\EXCEL\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACEA6F3-F452-49E4-BCF3-3BD6C4318DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02B60B-C0EC-48D5-B063-077B5EFFE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARKSHEET" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>SR NO</t>
   </si>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A58B24A-2B0F-4130-8908-AE334D591198}">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:T2"/>
     </sheetView>
   </sheetViews>
@@ -1761,7 +1761,7 @@
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="33">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
@@ -1772,7 +1772,7 @@
       <c r="X2" s="32"/>
       <c r="Y2" s="31">
         <f>EOMONTH(R2,0)</f>
-        <v>44804</v>
+        <v>44742</v>
       </c>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
@@ -1798,7 +1798,7 @@
       <c r="Q3" s="32"/>
       <c r="R3" s="34">
         <f>R2</f>
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
@@ -1809,7 +1809,7 @@
       <c r="X3" s="32"/>
       <c r="Y3" s="24">
         <f>Y2</f>
-        <v>44804</v>
+        <v>44742</v>
       </c>
       <c r="Z3" s="24"/>
       <c r="AA3" s="24"/>
@@ -1868,127 +1868,127 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9">
         <f>R2</f>
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="F5" s="9">
         <f>IF(E5&lt;$Y$2,E5+1,"")</f>
-        <v>44775</v>
+        <v>44714</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" ref="G5:AL5" si="0">IF(F5&lt;$Y$2,F5+1,"")</f>
-        <v>44776</v>
+        <v>44715</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>44777</v>
+        <v>44716</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>44778</v>
+        <v>44717</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>44779</v>
+        <v>44718</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="0"/>
-        <v>44780</v>
+        <v>44719</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>44781</v>
+        <v>44720</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>44782</v>
+        <v>44721</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="0"/>
-        <v>44783</v>
+        <v>44722</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>44784</v>
+        <v>44723</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="0"/>
-        <v>44785</v>
+        <v>44724</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>44786</v>
+        <v>44725</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>44787</v>
+        <v>44726</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="0"/>
-        <v>44788</v>
+        <v>44727</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="0"/>
-        <v>44789</v>
+        <v>44728</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="0"/>
-        <v>44790</v>
+        <v>44729</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>44791</v>
+        <v>44730</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="0"/>
-        <v>44792</v>
+        <v>44731</v>
       </c>
       <c r="X5" s="9">
         <f t="shared" si="0"/>
-        <v>44793</v>
+        <v>44732</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="0"/>
-        <v>44794</v>
+        <v>44733</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="0"/>
-        <v>44795</v>
+        <v>44734</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="0"/>
-        <v>44796</v>
+        <v>44735</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="0"/>
-        <v>44797</v>
+        <v>44736</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="0"/>
-        <v>44798</v>
+        <v>44737</v>
       </c>
       <c r="AD5" s="9">
         <f t="shared" si="0"/>
-        <v>44799</v>
+        <v>44738</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="0"/>
-        <v>44800</v>
+        <v>44739</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="0"/>
-        <v>44801</v>
+        <v>44740</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="0"/>
-        <v>44802</v>
+        <v>44741</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>44803</v>
-      </c>
-      <c r="AI5" s="9">
+        <v>44742</v>
+      </c>
+      <c r="AI5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>44804</v>
+        <v/>
       </c>
       <c r="AJ5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2022,127 +2022,127 @@
       </c>
       <c r="E6" s="11" t="str">
         <f>TEXT(E5,"DDDD")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="F6" s="11" t="str">
         <f t="shared" ref="F6:AI6" si="1">TEXT(F5,"DDDD")</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="H6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="I6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="J6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="L6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="M6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="N6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="O6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="P6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="Q6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="R6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="S6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="T6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="U6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="V6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="W6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="X6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="Y6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="Z6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="AA6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="AB6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="AC6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="AD6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="AE6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="AF6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="AG6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="AH6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="AI6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Wednesday</v>
+        <v/>
       </c>
       <c r="AJ6" s="12" t="str">
         <f t="shared" ref="AJ6" si="2">TEXT(AJ5,"DDD")</f>
@@ -2174,127 +2174,127 @@
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <f t="shared" ref="E7:AF7" si="3">IF(E5&lt;=$Y$2,WEEKDAY(E$5),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T7" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W7" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X7" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="15">
         <f t="shared" ref="AG7:AI7" si="4">IF(AG5&lt;=$Y$2,WEEKDAY(AG$5),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="15">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="15">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
@@ -2326,130 +2326,129 @@
       <c r="E8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="16" t="str">
-        <f t="shared" ref="F8:AI16" si="5">IF(F$7=0," ",IF($D8=F$7,"R","P"))</f>
-        <v>P</v>
+      <c r="F8" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="17" t="str">
-        <f t="shared" ref="G8" si="6">IF(G$7=0," ",IF($D8=G$7,"R","P"))</f>
+        <f t="shared" ref="G8" si="5">IF(G$7=0," ",IF($D8=G$7,"R","P"))</f>
         <v>P</v>
       </c>
       <c r="H8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F8:AI16" si="6">IF(H$7=0," ",IF($D8=H$7,"R","P"))</f>
         <v>P</v>
       </c>
       <c r="I8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L8" s="17" t="str">
         <f t="shared" ref="L8:L10" si="7">IF(L$7=0," ",IF($D8=L$7,"R","P"))</f>
         <v>P</v>
       </c>
       <c r="M8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH8" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI8" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="18">
         <f>COUNTIF(E8:AI8,"P")</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL8" s="18">
         <f>COUNTIF(E8:AI8,"A")</f>
@@ -2457,7 +2456,7 @@
       </c>
       <c r="AM8" s="18">
         <f>COUNTIF(E8:AI8,"R")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
@@ -2478,129 +2477,129 @@
         <v>P</v>
       </c>
       <c r="F9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="7"/>
         <v>P</v>
       </c>
       <c r="M9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD9" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF9" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI9" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ9" s="17"/>
       <c r="AK9" s="18">
         <f t="shared" ref="AK9:AK22" si="9">COUNTIF(E9:AI9,"P")</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" s="18">
         <f t="shared" ref="AL9:AL22" si="10">COUNTIF(E9:AI9,"A")</f>
@@ -2629,129 +2628,129 @@
         <v>P</v>
       </c>
       <c r="F10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L10" s="17" t="str">
         <f t="shared" si="7"/>
         <v>P</v>
       </c>
       <c r="M10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI10" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL10" s="18">
         <f t="shared" si="10"/>
@@ -2780,129 +2779,129 @@
         <v>P</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P11" s="17" t="str">
         <f t="shared" ref="P11" si="12">IF(P$7=0," ",IF($D11=P$7,"R","P"))</f>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI11" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL11" s="18">
         <f t="shared" si="10"/>
@@ -2931,129 +2930,129 @@
         <v>P</v>
       </c>
       <c r="F12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="M12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI12" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" s="18">
         <f t="shared" si="10"/>
@@ -3082,129 +3081,129 @@
         <v>P</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="M13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI13" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" s="18">
         <f t="shared" si="10"/>
@@ -3233,129 +3232,129 @@
         <v>P</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="M14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI14" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL14" s="18">
         <f t="shared" si="10"/>
@@ -3384,129 +3383,129 @@
         <v>P</v>
       </c>
       <c r="F15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="M15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="V15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="W15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="X15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="Y15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Z15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AA15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AB15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AC15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AD15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="AE15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AF15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AG15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AH15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="AI15" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL15" s="18">
         <f t="shared" si="10"/>
@@ -3535,63 +3534,63 @@
         <v>P</v>
       </c>
       <c r="F16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="G16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="H16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="I16" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="K16" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="L16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="M16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="N16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="O16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="P16" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>P</v>
+        <f t="shared" si="6"/>
+        <v>R</v>
       </c>
       <c r="Q16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="R16" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="T16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>P</v>
       </c>
       <c r="U16" s="17" t="str">
@@ -3604,7 +3603,7 @@
       </c>
       <c r="W16" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X16" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3612,7 +3611,7 @@
       </c>
       <c r="Y16" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z16" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3632,7 +3631,7 @@
       </c>
       <c r="AD16" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE16" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3640,7 +3639,7 @@
       </c>
       <c r="AF16" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG16" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3652,12 +3651,12 @@
       </c>
       <c r="AI16" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL16" s="18">
         <f t="shared" si="10"/>
@@ -3699,7 +3698,7 @@
       </c>
       <c r="I17" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="J17" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3707,7 +3706,7 @@
       </c>
       <c r="K17" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="L17" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3727,7 +3726,7 @@
       </c>
       <c r="P17" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q17" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3735,7 +3734,7 @@
       </c>
       <c r="R17" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="S17" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3755,7 +3754,7 @@
       </c>
       <c r="W17" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X17" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3763,7 +3762,7 @@
       </c>
       <c r="Y17" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z17" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3783,7 +3782,7 @@
       </c>
       <c r="AD17" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE17" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3791,7 +3790,7 @@
       </c>
       <c r="AF17" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG17" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3803,12 +3802,12 @@
       </c>
       <c r="AI17" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" s="18">
         <f t="shared" si="10"/>
@@ -3850,7 +3849,7 @@
       </c>
       <c r="I18" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="J18" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3858,7 +3857,7 @@
       </c>
       <c r="K18" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="L18" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3878,7 +3877,7 @@
       </c>
       <c r="P18" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q18" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3886,7 +3885,7 @@
       </c>
       <c r="R18" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="S18" s="17" t="str">
         <f t="shared" si="8"/>
@@ -3906,7 +3905,7 @@
       </c>
       <c r="W18" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X18" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3914,7 +3913,7 @@
       </c>
       <c r="Y18" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z18" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3934,7 +3933,7 @@
       </c>
       <c r="AD18" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE18" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3942,7 +3941,7 @@
       </c>
       <c r="AF18" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG18" s="17" t="str">
         <f t="shared" si="13"/>
@@ -3954,12 +3953,12 @@
       </c>
       <c r="AI18" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" s="18">
         <f t="shared" si="10"/>
@@ -4001,7 +4000,7 @@
       </c>
       <c r="I19" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="J19" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4009,7 +4008,7 @@
       </c>
       <c r="K19" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="L19" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4029,7 +4028,7 @@
       </c>
       <c r="P19" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q19" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4037,7 +4036,7 @@
       </c>
       <c r="R19" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="S19" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4057,7 +4056,7 @@
       </c>
       <c r="W19" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X19" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4065,7 +4064,7 @@
       </c>
       <c r="Y19" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z19" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4085,7 +4084,7 @@
       </c>
       <c r="AD19" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE19" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4093,7 +4092,7 @@
       </c>
       <c r="AF19" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG19" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4105,12 +4104,12 @@
       </c>
       <c r="AI19" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19" s="18">
         <f t="shared" si="10"/>
@@ -4152,7 +4151,7 @@
       </c>
       <c r="I20" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="J20" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4160,7 +4159,7 @@
       </c>
       <c r="K20" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="L20" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4180,7 +4179,7 @@
       </c>
       <c r="P20" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q20" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4188,7 +4187,7 @@
       </c>
       <c r="R20" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="S20" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4208,7 +4207,7 @@
       </c>
       <c r="W20" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X20" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4216,7 +4215,7 @@
       </c>
       <c r="Y20" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z20" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4236,7 +4235,7 @@
       </c>
       <c r="AD20" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE20" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4244,7 +4243,7 @@
       </c>
       <c r="AF20" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG20" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4256,12 +4255,12 @@
       </c>
       <c r="AI20" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL20" s="18">
         <f t="shared" si="10"/>
@@ -4303,7 +4302,7 @@
       </c>
       <c r="I21" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="J21" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4311,7 +4310,7 @@
       </c>
       <c r="K21" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="L21" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4331,7 +4330,7 @@
       </c>
       <c r="P21" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q21" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4339,7 +4338,7 @@
       </c>
       <c r="R21" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="S21" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4359,7 +4358,7 @@
       </c>
       <c r="W21" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X21" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4367,7 +4366,7 @@
       </c>
       <c r="Y21" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z21" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4387,7 +4386,7 @@
       </c>
       <c r="AD21" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE21" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4395,7 +4394,7 @@
       </c>
       <c r="AF21" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG21" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4407,12 +4406,12 @@
       </c>
       <c r="AI21" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" s="18">
         <f t="shared" si="10"/>
@@ -4454,7 +4453,7 @@
       </c>
       <c r="I22" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="J22" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4462,7 +4461,7 @@
       </c>
       <c r="K22" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="L22" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4482,7 +4481,7 @@
       </c>
       <c r="P22" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="Q22" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4490,7 +4489,7 @@
       </c>
       <c r="R22" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="S22" s="17" t="str">
         <f t="shared" si="8"/>
@@ -4510,7 +4509,7 @@
       </c>
       <c r="W22" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="X22" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4518,7 +4517,7 @@
       </c>
       <c r="Y22" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="Z22" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4538,7 +4537,7 @@
       </c>
       <c r="AD22" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="AE22" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4546,7 +4545,7 @@
       </c>
       <c r="AF22" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="AG22" s="17" t="str">
         <f t="shared" si="13"/>
@@ -4558,12 +4557,12 @@
       </c>
       <c r="AI22" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="18">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL22" s="18">
         <f t="shared" si="10"/>
